--- a/GSTR1_Excel_Workbook_Template.xlsx
+++ b/GSTR1_Excel_Workbook_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01388\Desktop\GSTR_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971F822-091B-45E1-9B09-40643115DBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D79248-C883-45AF-9D4F-F8BE904EDDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="972" firstSheet="19" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="972" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b2b" sheetId="1" r:id="rId1"/>
@@ -1162,14 +1162,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3362,21 +3362,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L2" s="3">
@@ -14557,19 +14557,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I2" s="3">
@@ -16326,17 +16326,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G2" s="3">
@@ -18084,23 +18084,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N2" s="3">
@@ -19928,18 +19928,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I2" s="3">
@@ -21694,20 +21694,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K2" s="3">
@@ -23500,18 +23500,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I2" s="3">
@@ -25256,20 +25256,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K2" s="3">
@@ -27029,13 +27029,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D2" s="3">
@@ -28667,15 +28667,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F2" s="3">
@@ -30329,13 +30329,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D2" s="3">
@@ -31969,17 +31969,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G2" s="3">
@@ -34282,15 +34282,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F2" s="3">
@@ -35950,18 +35950,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -36070,22 +36070,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -36244,20 +36244,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
@@ -37871,14 +37871,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
@@ -39458,18 +39458,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
@@ -41071,12 +41071,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C2" s="3">
@@ -42652,22 +42652,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
@@ -44285,16 +44285,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
@@ -45903,20 +45903,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
@@ -47524,15 +47524,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E2" s="3">
@@ -49624,14 +49624,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D2" s="3"/>
@@ -51208,7 +51208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -51873,21 +51873,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L2" s="3">
@@ -53714,12 +53714,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="3">
@@ -53840,19 +53840,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F2" s="3">
@@ -55737,9 +55737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K499"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55757,24 +55757,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F2" s="3">
         <f>SUM(F4:F100)</f>
-        <v>116735024.01996586</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3">
@@ -55783,11 +55783,11 @@
       </c>
       <c r="I2" s="3">
         <f>SUM(I4:I100)</f>
-        <v>10506136.939999077</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(J4:J100)</f>
-        <v>10506136.939999077</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(K4:K100)</f>
@@ -55865,63 +55865,30 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>997158</v>
-      </c>
-      <c r="E5" s="10">
-        <f>F5+I5+J5</f>
-        <v>68873648.949982002</v>
-      </c>
-      <c r="F5" s="10">
-        <v>58367512.009982929</v>
-      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10">
-        <v>5253068.4699995387</v>
-      </c>
-      <c r="J5" s="10">
-        <v>5253068.4699995387</v>
-      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E6" s="10">
-        <f t="shared" ref="E6:E7" si="0">F6+I6+J6</f>
-        <v>1239</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1050</v>
-      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10">
-        <v>94.5</v>
-      </c>
-      <c r="J6" s="10">
-        <v>94.5</v>
-      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E7" s="10">
-        <f t="shared" si="0"/>
-        <v>68872409.949982002</v>
-      </c>
-      <c r="F7" s="10">
-        <f>F5-F6</f>
-        <v>58366462.009982929</v>
-      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="8"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="10">
-        <f t="shared" ref="I7:J7" si="1">I5-I6</f>
-        <v>5252973.9699995387</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" si="1"/>
-        <v>5252973.9699995387</v>
-      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -57708,13 +57675,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D2" s="13">
@@ -57759,7 +57726,7 @@
       <c r="E4" t="s">
         <v>263</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -57800,23 +57767,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N2" s="3">
